--- a/results/I3_N5_M2_T30_C200_DepCentral_s2_mean_res.xlsx
+++ b/results/I3_N5_M2_T30_C200_DepCentral_s2_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.5543650774352</v>
+        <v>22.71436508284903</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1449999809265137</v>
+        <v>0.04500007629394531</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>38.83999999458617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20.66483080554374</v>
+        <v>20.66483080554377</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>22.99312545677585</v>
+        <v>22.9931254567759</v>
       </c>
     </row>
     <row r="6">
@@ -884,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21.9585850325899</v>
+        <v>21.95858503258996</v>
       </c>
     </row>
     <row r="8">
@@ -999,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>41.07299999992934</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="4">
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>156.3449999997628</v>
+        <v>124.2</v>
       </c>
     </row>
     <row r="5">
@@ -1021,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>151.5339999999633</v>
+        <v>136.6</v>
       </c>
     </row>
     <row r="6">
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>107.7910000000066</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>203.8839999995814</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>151.5339999999476</v>
+        <v>136.6</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>203.8839999994589</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -1123,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>3.883999999458617</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1228,7 +1228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1253,17 +1253,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
